--- a/biology/Médecine/Bibliothèque_interuniversitaire_de_santé/Bibliothèque_interuniversitaire_de_santé.xlsx
+++ b/biology/Médecine/Bibliothèque_interuniversitaire_de_santé/Bibliothèque_interuniversitaire_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bibliothèque interuniversitaire de santé, ou BIU Santé, est une bibliothèque interuniversitaire parisienne spécialisée en médecine, odontologie, pharmacie et dans les sciences associées.
 Elle était issue de la fusion, le 1er janvier 2011, de la bibliothèque interuniversitaire de médecine et d'odontologie (BIUM) avec la bibliothèque interuniversitaire de pharmacie (BIUP), les deux sites restant toutefois distincts.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,22 +527,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bibliothèque interuniversitaire de médecine
-La BIUM est originairement la bibliothèque de l'ancienne faculté de médecine de Paris, créée au Moyen Âge et installée rue de la Bûcherie puis rue Jean-de-Beauvais[1]. La première mention d'un prêt d'ouvrage remonte à 1391 et la première liste d'ouvrages conservés répertorie treize manuscrits en 1395[2]. Au début du XVIIIe siècle, la bibliothèque ne comporte que 32 volumes[3]. Les donations des docteurs François Picote de Belestre (3456 volumes en 1733[4]) et Philippe Hecquet augmentent grandement les collections. Le 3 mars 1746, la bibliothèque de la faculté est ouverte de manière plus large au public. La faculté est supprimée en 1793, mais une École de santé est établie par la Convention en 1794 et s'installe dans l'ancienne académie de chirurgie, dans un bâtiment construit par Jacques Gondouin[5].
+          <t>Bibliothèque interuniversitaire de médecine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La BIUM est originairement la bibliothèque de l'ancienne faculté de médecine de Paris, créée au Moyen Âge et installée rue de la Bûcherie puis rue Jean-de-Beauvais. La première mention d'un prêt d'ouvrage remonte à 1391 et la première liste d'ouvrages conservés répertorie treize manuscrits en 1395. Au début du XVIIIe siècle, la bibliothèque ne comporte que 32 volumes. Les donations des docteurs François Picote de Belestre (3456 volumes en 1733) et Philippe Hecquet augmentent grandement les collections. Le 3 mars 1746, la bibliothèque de la faculté est ouverte de manière plus large au public. La faculté est supprimée en 1793, mais une École de santé est établie par la Convention en 1794 et s'installe dans l'ancienne académie de chirurgie, dans un bâtiment construit par Jacques Gondouin.
 Dispersées au moment de la fermeture de la faculté, les collections sont reconstituées par le chirurgien et bibliothécaire Pierre Sue qui y joint les fonds de l'ancienne académie de chirurgie, ceux de la Société royale de médecine et enfin d'autres pris dans les dépôts littéraires de la capitale. La bibliothèque est rouverte au public en 1795.
 Durant tout le XIXe siècle et une grande partie du XXe siècle jusqu'au début des années 1970, la bibliothèque constitue la bibliothèque de la faculté de médecine de Paris et ses fonds continuent de s'accroître.
-Bibliothèque interuniversitaire de pharmacie
-L'histoire des collections de la BIUP remonte à un don d'ouvrages fait en novembre 1570 par quatre maîtres de la communauté des apothicaires-épiciers de Paris à leur corporation. D'autres dons des gardes de la communauté étoffent la bibliothèque commune jusqu'en 1777, date à laquelle est créé le Collège de Pharmacie de Paris. Le fonds d'ouvrages et d'archives passe en 1803 sous la responsabilité du secrétaire de l'École de Pharmacie et de certains professeurs (notamment Nicolas Gaston Guibourt).
-La fonction de bibliothécaire n'apparaît au sein de l'École de pharmacie qu'en 1878, puis un règlement pour le service entre en vigueur en février 1882. Cette même année 1882, l'École et la bibliothèque quittent l'ancien Jardin des apothicaires rue de l'Arbalète et emménagent dans de nouveaux locaux à la faculté de pharmacie de Paris, avenue de l'Observatoire.
-C'est surtout le docteur et historien Paul Dorveaux (1851-1938), bibliothécaire de 1884 à 1922, qui va marquer l'établissement d'une empreinte durable, par l'organisation d'une politique de conservation et d'acquisition, touchant aussi bien la production scientifique courante que les manuscrits et ouvrages anciens.
-Sous les directions de Gabriel Garnier (1936-1961) et Yvonne Ruyssen (1961-1973), la bibliothèque connut de nouvelles mutations : accroissement des effectifs en personnel, réorganisation des locaux et ouverture d'une nouvelle salle de lecture (salle Dorveaux) en 1958[6].
-Depuis 1972
-À la suite de l'éclatement de l'université de Paris, les deux bibliothèques sont d'abord intégrées en 1972, avec la bibliothèque scientifique, dans la bibliothèque interuniversitaire C en vertu du décret no 72-132 du 10 février.
-Via le décret no 78-1122 du 16 novembre 1978, chacune de ces bibliothèques retrouve une autonomie sous les noms respectifs de Bibliothèque interuniversitaire de médecine (BIUM) et de Bibliothèque interuniversitaire de pharmacie (BIUP).
-Les deux entités relèvent de l'université Paris-Descartes (Paris 5), mais la Bibliothèque interuniversitaire de médecine (BIUM) est un service commun avec les universités Pierre-et-Marie-Curie (Paris 6) et Paris Diderot (Paris 7), tandis que la Bibliothèque interuniversitaire de pharmacie (BIUP) est un service commun avec l'université Paris-Sud 11.
-Depuis 2000
-En 2010, l'Université Pierre-et-Marie-Curie (Paris 6) dénonce la convention qui la lie à la Bibliothèque interuniversitaire de médecine (BIUM) et cesse de participer au fonctionnement de la bibliothèque. La BIUM reste un service commun entre l'université Paris-Descartes (Paris 5) et l'université Paris-Diderot (Paris 7), qui fusionneront en 2020 sous le nom d'Université de Paris.
-Le regroupement des deux bibliothèques en une Bibliothèque interuniversitaire de santé (BIUS) est décidé en septembre 2009[7] et est effectif au 1er janvier 2011.
 </t>
         </is>
       </c>
@@ -541,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,10 +561,129 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bibliothèque interuniversitaire de pharmacie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire des collections de la BIUP remonte à un don d'ouvrages fait en novembre 1570 par quatre maîtres de la communauté des apothicaires-épiciers de Paris à leur corporation. D'autres dons des gardes de la communauté étoffent la bibliothèque commune jusqu'en 1777, date à laquelle est créé le Collège de Pharmacie de Paris. Le fonds d'ouvrages et d'archives passe en 1803 sous la responsabilité du secrétaire de l'École de Pharmacie et de certains professeurs (notamment Nicolas Gaston Guibourt).
+La fonction de bibliothécaire n'apparaît au sein de l'École de pharmacie qu'en 1878, puis un règlement pour le service entre en vigueur en février 1882. Cette même année 1882, l'École et la bibliothèque quittent l'ancien Jardin des apothicaires rue de l'Arbalète et emménagent dans de nouveaux locaux à la faculté de pharmacie de Paris, avenue de l'Observatoire.
+C'est surtout le docteur et historien Paul Dorveaux (1851-1938), bibliothécaire de 1884 à 1922, qui va marquer l'établissement d'une empreinte durable, par l'organisation d'une politique de conservation et d'acquisition, touchant aussi bien la production scientifique courante que les manuscrits et ouvrages anciens.
+Sous les directions de Gabriel Garnier (1936-1961) et Yvonne Ruyssen (1961-1973), la bibliothèque connut de nouvelles mutations : accroissement des effectifs en personnel, réorganisation des locaux et ouverture d'une nouvelle salle de lecture (salle Dorveaux) en 1958.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Depuis 1972</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de l'éclatement de l'université de Paris, les deux bibliothèques sont d'abord intégrées en 1972, avec la bibliothèque scientifique, dans la bibliothèque interuniversitaire C en vertu du décret no 72-132 du 10 février.
+Via le décret no 78-1122 du 16 novembre 1978, chacune de ces bibliothèques retrouve une autonomie sous les noms respectifs de Bibliothèque interuniversitaire de médecine (BIUM) et de Bibliothèque interuniversitaire de pharmacie (BIUP).
+Les deux entités relèvent de l'université Paris-Descartes (Paris 5), mais la Bibliothèque interuniversitaire de médecine (BIUM) est un service commun avec les universités Pierre-et-Marie-Curie (Paris 6) et Paris Diderot (Paris 7), tandis que la Bibliothèque interuniversitaire de pharmacie (BIUP) est un service commun avec l'université Paris-Sud 11.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Depuis 2000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, l'Université Pierre-et-Marie-Curie (Paris 6) dénonce la convention qui la lie à la Bibliothèque interuniversitaire de médecine (BIUM) et cesse de participer au fonctionnement de la bibliothèque. La BIUM reste un service commun entre l'université Paris-Descartes (Paris 5) et l'université Paris-Diderot (Paris 7), qui fusionneront en 2020 sous le nom d'Université de Paris.
+Le regroupement des deux bibliothèques en une Bibliothèque interuniversitaire de santé (BIUS) est décidé en septembre 2009 et est effectif au 1er janvier 2011.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Statut et fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bibliothèque est théoriquement régie par une convention passée entre les universités Paris-Descartes (Paris 5), Paris Diderot (Paris 7) et Paris 11. Elle est rattachée administrativement à l'université Paris Descartes. Elle est dirigée par un conservateur des bibliothèques.
 La Bibliothèque interuniversitaire de santé était jusqu'en 2017 CADIST pour la médecine, l'odontologie et la cosmétologie. Elle est désormais « délégataire CollEx » dans les disciplines suivantes : médecine, odontologie, pharmacie-chimie, cosmétologie, psychologie (en association avec la bibliothèque Henri-Piéron), psychiatrie, sciences cognitives, neurosciences. La BIU Santé est également pôle associé de la Bibliothèque nationale de France pour la médecine et la pharmacie.
@@ -571,31 +695,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le pôle médecine-odontologie abrite trois salles de lecture :
 la salle Louis Landouzy fut le premier espace public de la bibliothèque en 1795. Elle abrite désormais les collections d'odontologie ;
@@ -607,85 +733,261 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Collections</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La BIU Santé est une bibliothèque de référence au niveau national en matière médicale. Elle est aussi le conservatoire de toutes les thèses de médecine et de chirurgie dentaire soutenues en France, dont elle reçoit un exemplaire. Pour Paris, la collection de thèses remonte à 1539. La BIU Santé était dépositaire du dépôt légal pour les ouvrages de médecine et d'odontologie. 
 L'ensemble de la collection figure parmi les trois plus riches du monde dans ces domaines, avec celles de la National Library of Medicine (États-Unis) et de la Wellcome Library (Londres).
 Pour gagner de la place, la BIU Santé a confié une partie de ses collections, en particulier des thèses de province (seulement les années anciennes), les thèses étrangères et les revues en caractères non latins au Centre technique du livre de l'enseignement supérieur.
-Médecine-odontologie
-Plus de 440 000 ouvrages imprimés ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Médecine-odontologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Plus de 440 000 ouvrages imprimés ;
 près de 16 300 titres de périodiques français et étrangers, dont 5 000 en cours ;
-de nombreuses ressources électroniques (documents numériques, bases de données et périodiques en ligne, Internet).
-Histoire de la santé
-1 146 manuscrits ;
+de nombreuses ressources électroniques (documents numériques, bases de données et périodiques en ligne, Internet).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Histoire de la santé</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1 146 manuscrits ;
 3 000 ouvrages du XVIe siècle, 6 700 du XVIIe siècle, 16 000 du XVIIIe siècle, 130 000 du XIXe siècle
-dessins, estampes, photographies, médailles.
-Pharmacie-biologie-cosmétologie
-Plus de 97 000 volumes ;
+dessins, estampes, photographies, médailles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pharmacie-biologie-cosmétologie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Plus de 97 000 volumes ;
 plus de 4 000 publications en série en cours (périodiques et collections) ;
-208 manuscrits.
-Bibliothèque virtuelle
-Le site Internet de la BIU Santé comprend :
+208 manuscrits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bibliothèque virtuelle</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site Internet de la BIU Santé comprend :
 une partie moderne (catalogues, bases de données, service question-réponse en ligne BIUMInfo, fourniture de documents à distance...
 et une bibliothèque virtuelle patrimoniale, Medic@, qui offre l'accès en ligne à des corpus de textes intéressant l'histoire de la médecine, de l'art dentaire, de la pharmacie et de la santé en général, du XVe siècle au XXe siècle, que complètent d'autres produits et services documentaires (banque de 230 000 images, expositions virtuelles, base bio-bibliographique de médecins, publication électronique de thèses et de congrès, sites web de sociétés savantes, éditions critiques de textes).
-En collaboration avec l'Académie nationale de chirurgie, la BIU Santé publie aussi une revue scientifique en Open Access, les e-Memoires de l'Académie nationale de Chirurgie[8], et diffuse en ligne les vidéos des séances hebdomadaires de l'Académie.
+En collaboration avec l'Académie nationale de chirurgie, la BIU Santé publie aussi une revue scientifique en Open Access, les e-Memoires de l'Académie nationale de Chirurgie, et diffuse en ligne les vidéos des séances hebdomadaires de l'Académie.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Liste des responsables</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">La bibliothèque est actuellement dirigée par deux co-directeurs qui sont tous les deux conservateurs.
-Bibliothèque de médecine
-Jean-Louis-Livin Baude de Lacloye (1737-1748)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des responsables</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bibliothèque de médecine</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Jean-Louis-Livin Baude de Lacloye (1737-1748)
 Charles Payen (1749-1751)
 Michel-Procope Couteaux (1751-1753)
 Louis-René Marteau (1753-1757)
@@ -715,9 +1017,43 @@
 Paule Dumaître (1971-1979)
 Yvonne Guéniot (1979-1989)
 Pierrette Casseyre (1990-1999)
-Guy Cobolet (2000-2010)
-Bibliothèque de pharmacie
-Oswald Goepp (1878-1879)
+Guy Cobolet (2000-2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des responsables</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bibliothèque de pharmacie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Oswald Goepp (1878-1879)
 Gabriel Le Mercier (1879-1884)
 Paul Dorveaux (1884-1922)
 Louis Barrau-Dihigo (1922-1925)
@@ -731,9 +1067,43 @@
 Odile Rohou (2000-2003)
 Christiane Baryla (2003-2006)
 Laurence Boitard (2006-2009)
-Françoise Boucheron (par intérim 2009-2010)
-BIU Santé
-Guy Cobolet (2011-2018)
+Françoise Boucheron (par intérim 2009-2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bibliothèque_interuniversitaire_de_santé</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblioth%C3%A8que_interuniversitaire_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des responsables</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>BIU Santé</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guy Cobolet (2011-2018)
 Sabine Labare et Arnauld Sillet (2018-2020)
 Catherine Weill (2020-2021)
 Emeline Dalsorg (depuis sept. 2021)
